--- a/Mikkel-arbejds-og-miljømedicin.xlsx
+++ b/Mikkel-arbejds-og-miljømedicin.xlsx
@@ -1798,10 +1798,10 @@
     <t>Ingen andre konkurrende årsager</t>
   </si>
   <si>
-    <t>https://cdn.filestackcontent.com/H0vCI2OCRKWLjRINt1UX</t>
-  </si>
-  <si>
-    <t>https://cdn.filestackcontent.com/Cc9kk9RwQHWaUaYD5vRu</t>
+    <t>paste-9c531d5ac27a7fab6b2231deab63d5e22c609b5c.jpg</t>
+  </si>
+  <si>
+    <t>paste-ef32aa11b0cb01a39080ad0da1ee9894a6124603.jpg</t>
   </si>
   <si>
     <t>Den konduktive del af luftvejene har et epitel beklædt med et overvejende vandholdigt lag.</t>
@@ -2047,20 +2047,20 @@
     <t>Sæt: 2017 - vinter - ordinær</t>
   </si>
   <si>
-    <t>https://cdn.filestackcontent.com/8Sc5EHTJQiG7y0SB5L9t</t>
-  </si>
-  <si>
-    <t>https://cdn.filestackcontent.com/7eQQmxzNSBCPqCxRpUnI</t>
-  </si>
-  <si>
-    <t>https://cdn.filestackcontent.com/qmB7evSdSgSd2FUxnPPK</t>
+    <t>paste-5a003721c35a87d567b5e48e17dec9edda7d0b5d.jpg</t>
+  </si>
+  <si>
+    <t>paste-f4659eed4d6ae76c3f047dea0ec0ce02ab5b889e.jpg</t>
+  </si>
+  <si>
+    <t>paste-6b2c33160b71eb14a77f85587c5613afb4abc3ed.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2075,13 +2075,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2116,22 +2109,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3677,7 +3664,7 @@
       <c r="N69" t="s">
         <v>616</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="O69" t="s">
         <v>677</v>
       </c>
     </row>
@@ -3935,7 +3922,7 @@
       <c r="I81" t="s">
         <v>458</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="O81" t="s">
         <v>678</v>
       </c>
     </row>
@@ -4371,7 +4358,7 @@
       <c r="N101" t="s">
         <v>626</v>
       </c>
-      <c r="O101" s="2" t="s">
+      <c r="O101" t="s">
         <v>679</v>
       </c>
     </row>
@@ -4713,7 +4700,7 @@
       <c r="H119" t="s">
         <v>370</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="L119" t="s">
         <v>594</v>
       </c>
     </row>
@@ -5517,7 +5504,7 @@
       <c r="H158" t="s">
         <v>408</v>
       </c>
-      <c r="L158" s="2" t="s">
+      <c r="L158" t="s">
         <v>595</v>
       </c>
       <c r="N158" t="s">
@@ -5795,13 +5782,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O69" r:id="rId1"/>
-    <hyperlink ref="O81" r:id="rId2"/>
-    <hyperlink ref="O101" r:id="rId3"/>
-    <hyperlink ref="L119" r:id="rId4"/>
-    <hyperlink ref="L158" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mikkel-arbejds-og-miljømedicin.xlsx
+++ b/Mikkel-arbejds-og-miljømedicin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="687">
   <si>
     <t>number</t>
   </si>
@@ -49,6 +49,9 @@
     <t>answer4</t>
   </si>
   <si>
+    <t>answer5</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
@@ -814,7 +817,7 @@
     <t>Her konjugeres det toksiske stof til en hydrofil gruppe</t>
   </si>
   <si>
-    <t>Der sker en oxidation med introduktion af en funktionel gruppe, fx en OH-, SH- eller en NH2-gruppe.</t>
+    <t>Der sker en oxidation med introduktion af en funktionel gruppe, fx en OH-, SH- eller en NH</t>
   </si>
   <si>
     <t>Eksponerings- og effektkurve</t>
@@ -841,13 +844,13 @@
     <t>Gastrointestinale symptomer</t>
   </si>
   <si>
-    <t>10 m3</t>
+    <t>10 m</t>
   </si>
   <si>
     <t>Forekomst af aerosoler og gasser, som kan påvirke helbredet enten akut eller kronisk</t>
   </si>
   <si>
-    <t>Kvælstofoxider (NOx)</t>
+    <t>Kvælstofoxider (NO</t>
   </si>
   <si>
     <t>Benzen</t>
@@ -943,7 +946,7 @@
     <t>Tuberkulose</t>
   </si>
   <si>
-    <t>Udsættelse for 1 fiber/cm3 i et år</t>
+    <t>Udsættelse for 1 fiber/cm</t>
   </si>
   <si>
     <t>Hænderne</t>
@@ -1126,7 +1129,7 @@
     <t>Stokholm-skalaen</t>
   </si>
   <si>
-    <t>Over 3 m/s2 = 130 dB</t>
+    <t>Over 3 m/s</t>
   </si>
   <si>
     <t>Bygge- og anlægsarbejde</t>
@@ -1150,7 +1153,7 @@
     <t>Anvendes til klinisk graduering af kar- og nervekomponent ved hånd-arm-vibrations-syndrom</t>
   </si>
   <si>
-    <t>10 x log(p1 x p0)2</t>
+    <t>10 x log(p</t>
   </si>
   <si>
     <t>Søvnproblemer</t>
@@ -1240,7 +1243,7 @@
     <t>Genoptræning</t>
   </si>
   <si>
-    <t>Højst 2,5 m/s2 i 8 timer</t>
+    <t>Højst 2,5 m/s</t>
   </si>
   <si>
     <t>TDI = NOAEL / sikkerhedsfaktor 1 x sikkerhedsfaktor 2</t>
@@ -1306,7 +1309,7 @@
     <t>Luftvejssygdomme (fx alveolitis og astma)</t>
   </si>
   <si>
-    <t>Svovldioxid (SO2)</t>
+    <t>Svovldioxid (SO</t>
   </si>
   <si>
     <t>Flygtige polycykliske aromatiske hydrocarboner (PAH)</t>
@@ -1315,7 +1318,7 @@
     <t>Fine partikler</t>
   </si>
   <si>
-    <t>Fotokemisk reaktion mellem NOX og organiske stoffer</t>
+    <t>Fotokemisk reaktion mellem NO</t>
   </si>
   <si>
     <t>Oxidativt stress efter inhalation</t>
@@ -1558,7 +1561,7 @@
     <t>Opførelsestidspunkt (gamle huse kan have sprækker i fundamentet)</t>
   </si>
   <si>
-    <t>Ozon (O3)</t>
+    <t>Ozon (O</t>
   </si>
   <si>
     <t>De grove partikler</t>
@@ -1651,7 +1654,7 @@
     <t>Arbejdets særlige art</t>
   </si>
   <si>
-    <t xml:space="preserve">Biologiske (smitsomme) eksponeringer </t>
+    <t>Psykologiske eksponeringer</t>
   </si>
   <si>
     <t>Epidemiologisk monitorering (arbejdsulykker, sygefravær)</t>
@@ -1660,7 +1663,7 @@
     <t>Cytomegalovirus</t>
   </si>
   <si>
-    <t>B12-vitamin mangel</t>
+    <t>B</t>
   </si>
   <si>
     <t>Skovarbejdere</t>
@@ -1669,9 +1672,6 @@
     <t>Usikker balance</t>
   </si>
   <si>
-    <t>Kræft (lunge, blære, hud)</t>
-  </si>
-  <si>
     <t>Svimmelhed</t>
   </si>
   <si>
@@ -1762,9 +1762,6 @@
     <t>Fra eksponering for enkeltstoffer til blandingseksponering</t>
   </si>
   <si>
-    <t>Psykologiske eksponeringer</t>
-  </si>
-  <si>
     <t>Almen utilpashed</t>
   </si>
   <si>
@@ -1798,10 +1795,34 @@
     <t>Ingen andre konkurrende årsager</t>
   </si>
   <si>
-    <t>paste-9c531d5ac27a7fab6b2231deab63d5e22c609b5c.jpg</t>
-  </si>
-  <si>
-    <t>paste-ef32aa11b0cb01a39080ad0da1ee9894a6124603.jpg</t>
+    <t>Bygningsarbejde</t>
+  </si>
+  <si>
+    <t>Tilstanden udvikles inden for de første seks måneder efter traumet</t>
+  </si>
+  <si>
+    <t>Håndtering</t>
+  </si>
+  <si>
+    <t>Nikkelforbindelser</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Fra store doser til små doser</t>
+  </si>
+  <si>
+    <t>Mavesmerter</t>
+  </si>
+  <si>
+    <t>Organiske tributyltin forbindelser</t>
+  </si>
+  <si>
+    <t>https://cdn.filestackcontent.com/Cu2se9SsQVK22eTfhhZq</t>
+  </si>
+  <si>
+    <t>https://cdn.filestackcontent.com/brPuTubNQGCER01mM0Nh</t>
   </si>
   <si>
     <t>Den konduktive del af luftvejene har et epitel beklædt med et overvejende vandholdigt lag.</t>
@@ -2047,20 +2068,20 @@
     <t>Sæt: 2017 - vinter - ordinær</t>
   </si>
   <si>
-    <t>paste-5a003721c35a87d567b5e48e17dec9edda7d0b5d.jpg</t>
-  </si>
-  <si>
-    <t>paste-f4659eed4d6ae76c3f047dea0ec0ce02ab5b889e.jpg</t>
-  </si>
-  <si>
-    <t>paste-6b2c33160b71eb14a77f85587c5613afb4abc3ed.jpg</t>
+    <t>https://cdn.filestackcontent.com/X8wizPbqSGmDEyWLo7qX</t>
+  </si>
+  <si>
+    <t>https://cdn.filestackcontent.com/JkPnsPyWT1uG9vgpgsSJ</t>
+  </si>
+  <si>
+    <t>https://cdn.filestackcontent.com/gtGYQeonTS6myena1Mo7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2075,6 +2096,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2109,16 +2137,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2411,13 +2445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF170"/>
+  <dimension ref="A1:AG170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,3274 +2548,3302 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>1576694646569</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>1576694945107</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>1576694990399</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>1576694994898</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>1576695189386</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>1576695280378</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
-      </c>
-      <c r="N7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
+        <v>259</v>
+      </c>
+      <c r="O7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>1576699862556</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I8" t="s">
-        <v>421</v>
-      </c>
-      <c r="N8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+        <v>422</v>
+      </c>
+      <c r="O8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>1576743034883</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>1576774512041</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>1576774520694</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12">
         <v>1576774579896</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13">
         <v>1576775243782</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>264</v>
-      </c>
-      <c r="N13" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+        <v>265</v>
+      </c>
+      <c r="O13" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14">
         <v>1576775919218</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I14" t="s">
-        <v>425</v>
-      </c>
-      <c r="N14" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
+        <v>426</v>
+      </c>
+      <c r="O14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15">
         <v>1576776588371</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16">
         <v>1576777411396</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>1576786219005</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1577098957659</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I18" t="s">
-        <v>427</v>
-      </c>
-      <c r="N18" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>428</v>
+      </c>
+      <c r="O18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1577099067254</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>1577099262852</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I20" t="s">
-        <v>428</v>
-      </c>
-      <c r="N20" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>429</v>
+      </c>
+      <c r="O20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>1577099782811</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>272</v>
-      </c>
-      <c r="N21" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>273</v>
+      </c>
+      <c r="O21" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>1577101000931</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" t="s">
-        <v>273</v>
-      </c>
-      <c r="N22" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>274</v>
+      </c>
+      <c r="O22" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1577101060155</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I23" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>1577115925922</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>275</v>
-      </c>
-      <c r="N24" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>276</v>
+      </c>
+      <c r="O24" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>1577116037224</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>1577116382901</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J26" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1577116623867</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I27" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>1577116631173</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J28" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>1577116991168</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I29" t="s">
-        <v>433</v>
-      </c>
-      <c r="N29" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>434</v>
+      </c>
+      <c r="O29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>1577117393194</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I30" t="s">
-        <v>434</v>
-      </c>
-      <c r="N30" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>435</v>
+      </c>
+      <c r="O30" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>1577117400777</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H31" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>1577183272517</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1577287781106</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I33" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>1577288587386</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H34" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J34" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K34" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1577288826665</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H35" t="s">
-        <v>286</v>
-      </c>
-      <c r="N35" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>287</v>
+      </c>
+      <c r="O35" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1577475401252</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>1577615019309</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1577615936780</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I38" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>1577615942212</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J39" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>1577616064638</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>1577707701518</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I41" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J41" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>1577708219757</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>1577709815854</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J43" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>1577709892818</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H44" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>1577778971294</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H45" t="s">
-        <v>296</v>
-      </c>
-      <c r="N45" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>297</v>
+      </c>
+      <c r="O45" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>1577778983028</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H46" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>1577781032895</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H47" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1577781071358</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>1577781108464</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H49" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>1577781267884</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I50" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K50" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>1577781819136</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H51" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I51" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1577781966612</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H52" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I52" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J52" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K52" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="L52" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>1577806095800</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H53" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>1577806253687</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H54" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I54" t="s">
-        <v>443</v>
-      </c>
-      <c r="N54" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>444</v>
+      </c>
+      <c r="O54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>1577806254696</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H55" t="s">
-        <v>306</v>
-      </c>
-      <c r="N55" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>307</v>
+      </c>
+      <c r="O55" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>1577806891847</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H56" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J56" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>1577807284000</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I57" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J57" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>1577807679369</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
-      </c>
-      <c r="N58" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>310</v>
+      </c>
+      <c r="O58" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>1577807681446</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H59" t="s">
-        <v>310</v>
-      </c>
-      <c r="N59" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>311</v>
+      </c>
+      <c r="O59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>1577819858722</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I60" t="s">
-        <v>446</v>
-      </c>
-      <c r="N60" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>447</v>
+      </c>
+      <c r="O60" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>1577819912606</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H61" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>1577819968894</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H62" t="s">
-        <v>313</v>
-      </c>
-      <c r="N62" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>314</v>
+      </c>
+      <c r="O62" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>1577820684470</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H63" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>1577822052180</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H64" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>1577947450948</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I65" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J65" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>1577947576687</v>
       </c>
       <c r="D66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J66" t="s">
-        <v>525</v>
-      </c>
-      <c r="N66" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>526</v>
+      </c>
+      <c r="O66" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>1577947581343</v>
       </c>
       <c r="D67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H67" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>1577948474352</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H68" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>1577948485787</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H69" t="s">
-        <v>320</v>
-      </c>
-      <c r="N69" t="s">
-        <v>616</v>
+        <v>321</v>
       </c>
       <c r="O69" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>623</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>1578127826295</v>
       </c>
       <c r="D70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I70" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J70" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K70" t="s">
         <v>574</v>
       </c>
-      <c r="N70" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="O70" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>1578128623322</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I71" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J71" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K71" t="s">
         <v>575</v>
       </c>
-      <c r="N71" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="L71" t="s">
+        <v>594</v>
+      </c>
+      <c r="O71" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>1578128766768</v>
       </c>
       <c r="D72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I72" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J72" t="s">
-        <v>528</v>
-      </c>
-      <c r="N72" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>529</v>
+      </c>
+      <c r="O72" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>1578128949407</v>
       </c>
       <c r="D73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H73" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I73" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J73" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K73" t="s">
         <v>576</v>
       </c>
-      <c r="N73" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="L73" t="s">
+        <v>595</v>
+      </c>
+      <c r="O73" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>1578129252879</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H74" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I74" t="s">
-        <v>453</v>
-      </c>
-      <c r="N74" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>454</v>
+      </c>
+      <c r="O74" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>1578137943512</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I75" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>1578139214243</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H76" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I76" t="s">
-        <v>455</v>
-      </c>
-      <c r="N76" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>456</v>
+      </c>
+      <c r="O76" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>1578140759202</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H77" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J77" t="s">
-        <v>530</v>
-      </c>
-      <c r="N77" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>531</v>
+      </c>
+      <c r="O77" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>1578162698077</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H78" t="s">
-        <v>329</v>
-      </c>
-      <c r="N78" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>330</v>
+      </c>
+      <c r="O78" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>1578162703776</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H79" t="s">
-        <v>330</v>
-      </c>
-      <c r="N79" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>331</v>
+      </c>
+      <c r="O79" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>1578163158903</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H80" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J80" t="s">
-        <v>531</v>
-      </c>
-      <c r="N80" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>532</v>
+      </c>
+      <c r="O80" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>1578164033428</v>
       </c>
       <c r="D81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H81" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I81" t="s">
-        <v>458</v>
-      </c>
-      <c r="O81" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>459</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>1578164120230</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H82" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I82" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J82" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K82" t="s">
         <v>577</v>
       </c>
-      <c r="N82" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="O82" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>1578165271110</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H83" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I83" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J83" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="K83" t="s">
         <v>578</v>
       </c>
-      <c r="N83" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="O83" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>1578165298352</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H84" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I84" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K84" t="s">
-        <v>468</v>
-      </c>
-      <c r="N84" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>469</v>
+      </c>
+      <c r="O84" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>1578165817348</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I85" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J85" t="s">
-        <v>534</v>
-      </c>
-      <c r="N85" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>535</v>
+      </c>
+      <c r="O85" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>1578168924744</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H86" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J86" t="s">
-        <v>535</v>
-      </c>
-      <c r="N86" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>536</v>
+      </c>
+      <c r="O86" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>1578169118765</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H87" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I87" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J87" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>1578220589977</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H88" t="s">
-        <v>339</v>
-      </c>
-      <c r="N88" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>340</v>
+      </c>
+      <c r="O88" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>1578220902923</v>
       </c>
       <c r="D89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G89" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H89" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I89" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J89" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K89" t="s">
         <v>579</v>
       </c>
-      <c r="N89" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="L89" t="s">
+        <v>596</v>
+      </c>
+      <c r="O89" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>1578221253172</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G90" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H90" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I90" t="s">
-        <v>464</v>
-      </c>
-      <c r="N90" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>465</v>
+      </c>
+      <c r="O90" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>1578221659574</v>
       </c>
       <c r="D91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H91" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I91" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J91" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>1578221763692</v>
       </c>
       <c r="D92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H92" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I92" t="s">
-        <v>466</v>
-      </c>
-      <c r="N92" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>467</v>
+      </c>
+      <c r="O92" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>1578221926134</v>
       </c>
       <c r="D93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G93" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H93" t="s">
-        <v>344</v>
-      </c>
-      <c r="N93" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>345</v>
+      </c>
+      <c r="O93" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>1578222475144</v>
       </c>
       <c r="D94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G94" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H94" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I94" t="s">
-        <v>467</v>
-      </c>
-      <c r="N94" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>468</v>
+      </c>
+      <c r="O94" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>1578222481864</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G95" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H95" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I95" t="s">
-        <v>468</v>
-      </c>
-      <c r="N95" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>469</v>
+      </c>
+      <c r="O95" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>1578223731751</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G96" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H96" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I96" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J96" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>1578225197936</v>
       </c>
       <c r="D97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H97" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I97" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J97" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K97" t="s">
         <v>580</v>
       </c>
-      <c r="N97" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="L97" t="s">
+        <v>597</v>
+      </c>
+      <c r="O97" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>1578226691000</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H98" t="s">
-        <v>349</v>
-      </c>
-      <c r="N98" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>350</v>
+      </c>
+      <c r="O98" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>1578227922106</v>
       </c>
       <c r="D99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H99" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I99" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J99" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K99" t="s">
         <v>581</v>
       </c>
-      <c r="N99" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="L99" t="s">
+        <v>598</v>
+      </c>
+      <c r="O99" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>1578228452711</v>
       </c>
       <c r="D100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H100" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I100" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J100" t="s">
-        <v>541</v>
-      </c>
-      <c r="N100" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>542</v>
+      </c>
+      <c r="O100" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>1578230656539</v>
       </c>
       <c r="D101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H101" t="s">
-        <v>352</v>
-      </c>
-      <c r="N101" t="s">
-        <v>626</v>
+        <v>353</v>
       </c>
       <c r="O101" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>633</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>1578230766564</v>
       </c>
       <c r="D102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H102" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I102" t="s">
-        <v>472</v>
-      </c>
-      <c r="N102" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>473</v>
+      </c>
+      <c r="O102" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>1578255248155</v>
       </c>
       <c r="D103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H103" t="s">
-        <v>354</v>
-      </c>
-      <c r="N103" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>355</v>
+      </c>
+      <c r="O103" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>1578294377759</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H104" t="s">
-        <v>355</v>
-      </c>
-      <c r="N104" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>356</v>
+      </c>
+      <c r="O104" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>1578309486803</v>
       </c>
       <c r="D105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H105" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I105" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J105" t="s">
-        <v>542</v>
-      </c>
-      <c r="N105" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>543</v>
+      </c>
+      <c r="O105" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>1578309811827</v>
       </c>
       <c r="D106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H106" t="s">
-        <v>357</v>
-      </c>
-      <c r="N106" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>358</v>
+      </c>
+      <c r="O106" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>1578309857296</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H107" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I107" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J107" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>1578310017832</v>
       </c>
       <c r="D108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I108" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J108" t="s">
-        <v>544</v>
-      </c>
-      <c r="N108" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>545</v>
+      </c>
+      <c r="O108" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>1578310959285</v>
       </c>
       <c r="D109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G109" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H109" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I109" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J109" t="s">
-        <v>545</v>
-      </c>
-      <c r="K109" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>1578311147533</v>
       </c>
       <c r="D110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G110" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H110" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>1578311151808</v>
       </c>
       <c r="D111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G111" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H111" t="s">
-        <v>362</v>
-      </c>
-      <c r="N111" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>363</v>
+      </c>
+      <c r="O111" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>1578314137157</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G112" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H112" t="s">
-        <v>363</v>
-      </c>
-      <c r="N112" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>364</v>
+      </c>
+      <c r="O112" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>1578388952155</v>
       </c>
       <c r="D113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G113" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H113" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I113" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J113" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>1578388954599</v>
       </c>
       <c r="D114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G114" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H114" t="s">
-        <v>365</v>
-      </c>
-      <c r="N114" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>366</v>
+      </c>
+      <c r="O114" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>1578401935953</v>
       </c>
       <c r="D115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G115" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H115" t="s">
-        <v>366</v>
-      </c>
-      <c r="N115" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>367</v>
+      </c>
+      <c r="O115" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>1578416904260</v>
       </c>
       <c r="D116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H116" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I116" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J116" t="s">
-        <v>547</v>
-      </c>
-      <c r="N116" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>548</v>
+      </c>
+      <c r="O116" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>1578423292022</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G117" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H117" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I117" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J117" t="s">
-        <v>548</v>
-      </c>
-      <c r="N117" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>549</v>
+      </c>
+      <c r="O117" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>1578423381550</v>
       </c>
       <c r="D118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H118" t="s">
-        <v>369</v>
-      </c>
-      <c r="N118" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>370</v>
+      </c>
+      <c r="O118" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>1578423383873</v>
       </c>
       <c r="D119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G119" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H119" t="s">
-        <v>370</v>
-      </c>
-      <c r="L119" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>371</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>1578424779634</v>
       </c>
       <c r="D120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H120" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I120" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J120" t="s">
-        <v>549</v>
-      </c>
-      <c r="N120" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>550</v>
+      </c>
+      <c r="O120" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>1578424941867</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H121" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I121" t="s">
-        <v>481</v>
-      </c>
-      <c r="N121" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>482</v>
+      </c>
+      <c r="O121" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>1578424953672</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H122" t="s">
-        <v>373</v>
-      </c>
-      <c r="N122" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="O122" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>1578425114889</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H123" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I123" t="s">
-        <v>482</v>
-      </c>
-      <c r="N123" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>483</v>
+      </c>
+      <c r="O123" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124">
         <v>1578599205853</v>
       </c>
       <c r="D124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H124" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I124" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J124" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K124" t="s">
-        <v>583</v>
-      </c>
-      <c r="N124" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>582</v>
+      </c>
+      <c r="O124" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125">
         <v>1578772561561</v>
       </c>
       <c r="D125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H125" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I125" t="s">
-        <v>484</v>
-      </c>
-      <c r="J125" t="s">
-        <v>551</v>
-      </c>
-      <c r="N125" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+        <v>485</v>
+      </c>
+      <c r="O125" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126">
         <v>1578772819648</v>
       </c>
       <c r="D126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G126" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H126" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I126" t="s">
-        <v>485</v>
-      </c>
-      <c r="N126" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>486</v>
+      </c>
+      <c r="O126" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127">
         <v>1578772940505</v>
       </c>
       <c r="D127" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H127" t="s">
-        <v>378</v>
-      </c>
-      <c r="N127" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>379</v>
+      </c>
+      <c r="O127" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128">
         <v>1578858258261</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H128" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I128" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J128" t="s">
         <v>552</v>
       </c>
       <c r="K128" t="s">
-        <v>584</v>
-      </c>
-      <c r="N128" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>583</v>
+      </c>
+      <c r="L128" t="s">
+        <v>599</v>
+      </c>
+      <c r="O128" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129">
         <v>1578900449898</v>
       </c>
       <c r="D129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H129" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I129" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J129" t="s">
         <v>553</v>
       </c>
-      <c r="N129" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="O129" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130">
         <v>1578901595066</v>
       </c>
       <c r="D130" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H130" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I130" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J130" t="s">
         <v>554</v>
       </c>
-      <c r="N130" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="O130" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131">
         <v>1578902091210</v>
       </c>
       <c r="D131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G131" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H131" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I131" t="s">
-        <v>489</v>
-      </c>
-      <c r="N131" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>490</v>
+      </c>
+      <c r="O131" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132">
         <v>1578902095485</v>
       </c>
       <c r="D132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G132" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H132" t="s">
-        <v>383</v>
-      </c>
-      <c r="N132" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>384</v>
+      </c>
+      <c r="O132" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133">
         <v>1578904082750</v>
       </c>
       <c r="D133" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G133" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H133" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I133" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J133" t="s">
         <v>555</v>
       </c>
-      <c r="N133" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="O133" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134">
         <v>1578941860830</v>
       </c>
       <c r="D134" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G134" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H134" t="s">
-        <v>385</v>
-      </c>
-      <c r="N134" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>386</v>
+      </c>
+      <c r="O134" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135">
         <v>1578942123160</v>
       </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G135" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H135" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J135" t="s">
         <v>556</v>
       </c>
       <c r="K135" t="s">
-        <v>585</v>
-      </c>
-      <c r="N135" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>584</v>
+      </c>
+      <c r="O135" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136">
         <v>1578942287803</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G136" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H136" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I136" t="s">
-        <v>491</v>
-      </c>
-      <c r="N136" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>492</v>
+      </c>
+      <c r="O136" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137">
         <v>1578942708267</v>
       </c>
       <c r="D137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H137" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I137" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J137" t="s">
         <v>557</v>
       </c>
       <c r="K137" t="s">
-        <v>586</v>
-      </c>
-      <c r="N137" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>585</v>
+      </c>
+      <c r="O137" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138">
         <v>1578944619457</v>
       </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H138" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I138" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J138" t="s">
         <v>558</v>
       </c>
       <c r="K138" t="s">
-        <v>587</v>
-      </c>
-      <c r="N138" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>586</v>
+      </c>
+      <c r="O138" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139">
         <v>1578944957962</v>
       </c>
       <c r="D139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H139" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I139" t="s">
-        <v>494</v>
-      </c>
-      <c r="N139" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>495</v>
+      </c>
+      <c r="O139" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140">
         <v>1578945341458</v>
       </c>
       <c r="D140" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G140" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H140" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I140" t="s">
-        <v>495</v>
-      </c>
-      <c r="N140" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>496</v>
+      </c>
+      <c r="O140" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141">
         <v>1578945676972</v>
       </c>
       <c r="D141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G141" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H141" t="s">
-        <v>392</v>
-      </c>
-      <c r="N141" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>393</v>
+      </c>
+      <c r="O141" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142">
         <v>1578945677639</v>
       </c>
       <c r="D142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G142" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H142" t="s">
-        <v>393</v>
-      </c>
-      <c r="N142" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>394</v>
+      </c>
+      <c r="O142" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143">
         <v>1578946090999</v>
       </c>
       <c r="D143" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H143" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I143" t="s">
-        <v>496</v>
-      </c>
-      <c r="N143" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>497</v>
+      </c>
+      <c r="O143" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144">
         <v>1579033064761</v>
       </c>
       <c r="D144" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G144" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H144" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I144" t="s">
-        <v>497</v>
-      </c>
-      <c r="N144" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>498</v>
+      </c>
+      <c r="O144" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145">
         <v>1579079947129</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G145" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H145" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I145" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J145" t="s">
         <v>559</v>
       </c>
       <c r="K145" t="s">
-        <v>588</v>
-      </c>
-      <c r="N145" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>587</v>
+      </c>
+      <c r="O145" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146">
         <v>1579080177370</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G146" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H146" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I146" t="s">
-        <v>499</v>
-      </c>
-      <c r="N146" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>500</v>
+      </c>
+      <c r="O146" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147">
         <v>1579080549058</v>
       </c>
       <c r="D147" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G147" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H147" t="s">
-        <v>398</v>
-      </c>
-      <c r="N147" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>399</v>
+      </c>
+      <c r="O147" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148">
         <v>1579080668775</v>
       </c>
       <c r="D148" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G148" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H148" t="s">
-        <v>399</v>
-      </c>
-      <c r="N148" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>400</v>
+      </c>
+      <c r="O148" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149">
         <v>1579081000472</v>
       </c>
       <c r="D149" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G149" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H149" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I149" t="s">
-        <v>500</v>
-      </c>
-      <c r="N149" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>501</v>
+      </c>
+      <c r="O149" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150">
         <v>1579081525630</v>
       </c>
       <c r="D150" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G150" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H150" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I150" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J150" t="s">
         <v>560</v>
       </c>
-      <c r="N150" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="O150" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151">
         <v>1579083970247</v>
       </c>
       <c r="D151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G151" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H151" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I151" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J151" t="s">
         <v>561</v>
       </c>
-      <c r="N151" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="O151" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152">
         <v>1579084000490</v>
       </c>
       <c r="D152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H152" t="s">
-        <v>403</v>
-      </c>
-      <c r="N152" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>404</v>
+      </c>
+      <c r="O152" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153">
         <v>1579088517678</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G153" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H153" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I153" t="s">
-        <v>503</v>
-      </c>
-      <c r="N153" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>504</v>
+      </c>
+      <c r="O153" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154">
         <v>1579089434055</v>
       </c>
       <c r="D154" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H154" t="s">
-        <v>65</v>
-      </c>
-      <c r="N154" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>66</v>
+      </c>
+      <c r="O154" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155">
         <v>1579092428379</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H155" t="s">
-        <v>405</v>
-      </c>
-      <c r="N155" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>406</v>
+      </c>
+      <c r="O155" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156">
         <v>1579094041677</v>
       </c>
       <c r="D156" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G156" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H156" t="s">
-        <v>406</v>
-      </c>
-      <c r="N156" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>407</v>
+      </c>
+      <c r="O156" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157">
         <v>1579094584370</v>
       </c>
       <c r="D157" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H157" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I157" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J157" t="s">
         <v>562</v>
       </c>
       <c r="K157" t="s">
-        <v>589</v>
-      </c>
-      <c r="N157" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>588</v>
+      </c>
+      <c r="O157" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158">
         <v>1579095268832</v>
       </c>
       <c r="D158" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G158" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H158" t="s">
-        <v>408</v>
-      </c>
-      <c r="L158" t="s">
-        <v>595</v>
-      </c>
-      <c r="N158" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>409</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="O158" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159">
         <v>1579253340689</v>
       </c>
       <c r="D159" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H159" t="s">
-        <v>409</v>
-      </c>
-      <c r="N159" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>410</v>
+      </c>
+      <c r="O159" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160">
         <v>1579257921764</v>
       </c>
       <c r="D160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H160" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I160" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J160" t="s">
         <v>563</v>
       </c>
       <c r="K160" t="s">
-        <v>590</v>
-      </c>
-      <c r="N160" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>589</v>
+      </c>
+      <c r="L160" t="s">
+        <v>600</v>
+      </c>
+      <c r="O160" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161">
         <v>1579258883680</v>
       </c>
       <c r="D161" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H161" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I161" t="s">
-        <v>505</v>
-      </c>
-      <c r="N161" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>506</v>
+      </c>
+      <c r="O161" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162">
         <v>1579263952337</v>
       </c>
       <c r="D162" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H162" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I162" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J162" t="s">
         <v>564</v>
       </c>
       <c r="K162" t="s">
-        <v>591</v>
-      </c>
-      <c r="N162" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>590</v>
+      </c>
+      <c r="O162" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163">
         <v>1579267336770</v>
       </c>
       <c r="D163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H163" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I163" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J163" t="s">
         <v>565</v>
       </c>
-      <c r="N163" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+      <c r="O163" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164">
         <v>1579269176817</v>
       </c>
       <c r="D164" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H164" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I164" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J164" t="s">
         <v>566</v>
       </c>
       <c r="K164" t="s">
-        <v>592</v>
-      </c>
-      <c r="N164" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>591</v>
+      </c>
+      <c r="O164" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165">
         <v>1579272509843</v>
       </c>
       <c r="D165" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G165" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H165" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I165" t="s">
-        <v>509</v>
-      </c>
-      <c r="N165" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>510</v>
+      </c>
+      <c r="O165" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166">
         <v>1579273528378</v>
       </c>
       <c r="D166" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G166" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H166" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I166" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J166" t="s">
         <v>567</v>
       </c>
-      <c r="N166" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+      <c r="O166" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167">
         <v>1579340724878</v>
       </c>
       <c r="D167" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G167" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H167" t="s">
-        <v>417</v>
-      </c>
-      <c r="N167" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>418</v>
+      </c>
+      <c r="O167" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168">
         <v>1579341001942</v>
       </c>
       <c r="D168" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G168" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H168" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I168" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J168" t="s">
         <v>568</v>
       </c>
-      <c r="N168" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="O168" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169">
         <v>1579341858054</v>
       </c>
       <c r="D169" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H169" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I169" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J169" t="s">
         <v>569</v>
       </c>
       <c r="K169" t="s">
-        <v>593</v>
-      </c>
-      <c r="N169" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>592</v>
+      </c>
+      <c r="O169" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170">
         <v>1579349706880</v>
       </c>
       <c r="D170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G170" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H170" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I170" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J170" t="s">
         <v>570</v>
       </c>
-      <c r="N170" t="s">
-        <v>676</v>
+      <c r="O170" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P69" r:id="rId1"/>
+    <hyperlink ref="P81" r:id="rId2"/>
+    <hyperlink ref="P101" r:id="rId3"/>
+    <hyperlink ref="M119" r:id="rId4"/>
+    <hyperlink ref="M158" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>